--- a/MyStoreTestcase.xlsx
+++ b/MyStoreTestcase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Project Name</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Azar Tamboli</t>
-  </si>
-  <si>
-    <t>DD-MM-YYYY</t>
   </si>
   <si>
     <t>TestCase ID</t>
@@ -289,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -316,6 +313,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,8 +678,8 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>8</v>
+      <c r="B5" s="10">
+        <v>45171</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="1"/>
@@ -696,9 +696,7 @@
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -726,198 +724,198 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="G12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
